--- a/AD010_内部定義/BB030_テーブル設計書/BB030055_株価計算値.xlsx
+++ b/AD010_内部定義/BB030_テーブル設計書/BB030055_株価計算値.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1107F14B-1C24-4BDA-BCFB-AF0397DABC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2744A93-E0AB-4D6B-8F39-2C08DC43D8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="24190" windowHeight="16790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7970" yWindow="6560" windowWidth="19190" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本情報" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="70">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -452,6 +452,23 @@
   </si>
   <si>
     <t>stock_price_calc_value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spcvt_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株価計算値の種類ID</t>
+    <rPh sb="0" eb="2">
+      <t>カブカ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ケイサンチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュルイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -874,7 +891,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3">
-        <v>44348</v>
+        <v>44375</v>
       </c>
     </row>
   </sheetData>
@@ -886,7 +903,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D494202A-6D03-44D4-8C0D-2E4A8FF7709D}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -981,11 +998,11 @@
         <v/>
       </c>
       <c r="M2" t="str">
-        <f t="shared" ref="M2:M13" si="0">IF(G2="無"," NOT NULL","")</f>
+        <f t="shared" ref="M2:M14" si="0">IF(G2="無"," NOT NULL","")</f>
         <v xml:space="preserve"> NOT NULL</v>
       </c>
       <c r="N2" t="str">
-        <f t="shared" ref="N2:N12" si="1">IF(H2=1," PRIMARY KEY","")</f>
+        <f t="shared" ref="N2:N13" si="1">IF(H2=1," PRIMARY KEY","")</f>
         <v xml:space="preserve"> PRIMARY KEY</v>
       </c>
       <c r="P2" t="str">
@@ -995,7 +1012,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="5">
-        <f t="shared" ref="A3:A13" si="2">ROW()-1</f>
+        <f t="shared" ref="A3:A14" si="2">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1040,7 +1057,7 @@
         <v/>
       </c>
       <c r="P3" t="str">
-        <f t="shared" ref="P3:P14" si="3">IF(I3="○"," IDENTITY","")</f>
+        <f t="shared" ref="P3:P15" si="3">IF(I3="○"," IDENTITY","")</f>
         <v/>
       </c>
     </row>
@@ -1071,7 +1088,7 @@
         <v>16</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" ref="J4:J12" si="4">",   "&amp;C4</f>
+        <f t="shared" ref="J4:J13" si="4">",   "&amp;C4</f>
         <v>,   end_date</v>
       </c>
       <c r="K4" t="str">
@@ -1473,7 +1490,7 @@
       </c>
       <c r="H12" s="9"/>
       <c r="J12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="J12" si="5">",   "&amp;C12</f>
         <v>,   spts_id</v>
       </c>
       <c r="K12" s="8" t="str">
@@ -1485,34 +1502,34 @@
         <v/>
       </c>
       <c r="M12" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M12" si="6">IF(G12="無"," NOT NULL","")</f>
         <v xml:space="preserve"> NOT NULL</v>
       </c>
       <c r="N12" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="N12" si="7">IF(H12=1," PRIMARY KEY","")</f>
         <v/>
       </c>
       <c r="P12" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="5">
+        <f t="shared" ref="P12" si="8">IF(I12="○"," IDENTITY","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="8" customFormat="1">
+      <c r="A13" s="9">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>44</v>
+      <c r="B13" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="9">
+        <v>19</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>16</v>
@@ -1520,16 +1537,16 @@
       <c r="G13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="J13" t="str">
-        <f t="shared" ref="J13" si="5">",   "&amp;C13</f>
-        <v>,   calc_value</v>
-      </c>
-      <c r="K13" t="str">
+      <c r="H13" s="9"/>
+      <c r="J13" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>,   spcvt_id</v>
+      </c>
+      <c r="K13" s="8" t="str">
         <f>" "&amp;VLOOKUP(D13,型!B:C,2,FALSE)</f>
-        <v xml:space="preserve"> DOUBLE PRECISION</v>
-      </c>
-      <c r="L13" t="str">
+        <v xml:space="preserve"> BIGINT</v>
+      </c>
+      <c r="L13" s="8" t="str">
         <f>IF(VLOOKUP(D13,型!B:D,3,FALSE)="有","("&amp;E13&amp;")","")</f>
         <v/>
       </c>
@@ -1537,21 +1554,70 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve"> NOT NULL</v>
       </c>
-      <c r="N13" t="str">
-        <f t="shared" ref="N13" si="6">IF(H13=1," PRIMARY KEY","")</f>
-        <v/>
-      </c>
-      <c r="P13" t="str">
-        <f t="shared" ref="P13" si="7">IF(I13="○"," IDENTITY","")</f>
+      <c r="N13" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P13" s="8" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:16">
+      <c r="A14" s="5">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="5"/>
       <c r="J14" t="str">
+        <f t="shared" ref="J14" si="9">",   "&amp;C14</f>
+        <v>,   calc_value</v>
+      </c>
+      <c r="K14" t="str">
+        <f>" "&amp;VLOOKUP(D14,型!B:C,2,FALSE)</f>
+        <v xml:space="preserve"> DOUBLE PRECISION</v>
+      </c>
+      <c r="L14" t="str">
+        <f>IF(VLOOKUP(D14,型!B:D,3,FALSE)="有","("&amp;E14&amp;")","")</f>
+        <v/>
+      </c>
+      <c r="M14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> NOT NULL</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" ref="N14" si="10">IF(H14=1," PRIMARY KEY","")</f>
+        <v/>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" ref="P14" si="11">IF(I14="○"," IDENTITY","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="J15" t="str">
         <f>");"</f>
         <v>);</v>
       </c>
-      <c r="P14" t="str">
+      <c r="P15" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1560,7 +1626,7 @@
   <autoFilter ref="A1:I11" xr:uid="{0AF5AC3B-97BD-4F04-9D1A-5C920B5FF9BB}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D13" xr:uid="{32AF53E9-0EE8-4F91-B790-4502B36A52C4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D14" xr:uid="{32AF53E9-0EE8-4F91-B790-4502B36A52C4}">
       <formula1>論理型</formula1>
     </dataValidation>
   </dataValidations>
